--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N2">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O2">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P2">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q2">
-        <v>3.858383005795309</v>
+        <v>3.890257761806001</v>
       </c>
       <c r="R2">
-        <v>3.858383005795309</v>
+        <v>15.561031047224</v>
       </c>
       <c r="S2">
-        <v>0.005424696455720108</v>
+        <v>0.004872294318037421</v>
       </c>
       <c r="T2">
-        <v>0.005424696455720108</v>
+        <v>0.002890426831036937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N3">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P3">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q3">
-        <v>31.95302545097334</v>
+        <v>34.66732744356267</v>
       </c>
       <c r="R3">
-        <v>31.95302545097334</v>
+        <v>208.003964661376</v>
       </c>
       <c r="S3">
-        <v>0.04492437988998987</v>
+        <v>0.0434185683486431</v>
       </c>
       <c r="T3">
-        <v>0.04492437988998987</v>
+        <v>0.03863627278904211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H4">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I4">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J4">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N4">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O4">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P4">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q4">
-        <v>0.3472079887427413</v>
+        <v>0.429282392604</v>
       </c>
       <c r="R4">
-        <v>0.3472079887427413</v>
+        <v>2.575694355624</v>
       </c>
       <c r="S4">
-        <v>0.0004881573299232951</v>
+        <v>0.0005376482203449125</v>
       </c>
       <c r="T4">
-        <v>0.0004881573299232951</v>
+        <v>0.0004784294852604978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H5">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I5">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J5">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N5">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O5">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P5">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q5">
-        <v>0.6146580155032595</v>
+        <v>0.693267075839</v>
       </c>
       <c r="R5">
-        <v>0.6146580155032595</v>
+        <v>4.159602455034</v>
       </c>
       <c r="S5">
-        <v>0.0008641788938973405</v>
+        <v>0.000868271832179233</v>
       </c>
       <c r="T5">
-        <v>0.0008641788938973405</v>
+        <v>0.0007726368841492818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H6">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I6">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J6">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N6">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O6">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P6">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q6">
-        <v>4.488321855162785</v>
+        <v>4.846278105448</v>
       </c>
       <c r="R6">
-        <v>4.488321855162785</v>
+        <v>29.077668632688</v>
       </c>
       <c r="S6">
-        <v>0.006310359449350201</v>
+        <v>0.006069647494473904</v>
       </c>
       <c r="T6">
-        <v>0.006310359449350201</v>
+        <v>0.005401112133563668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H7">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I7">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J7">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N7">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O7">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P7">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q7">
-        <v>25.55811448986845</v>
+        <v>27.5747771529035</v>
       </c>
       <c r="R7">
-        <v>25.55811448986845</v>
+        <v>110.299108611614</v>
       </c>
       <c r="S7">
-        <v>0.03593345006958425</v>
+        <v>0.03453561133205438</v>
       </c>
       <c r="T7">
-        <v>0.03593345006958425</v>
+        <v>0.0204878135647278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H8">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J8">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N8">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O8">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P8">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q8">
-        <v>20.0216699533771</v>
+        <v>21.70455776525001</v>
       </c>
       <c r="R8">
-        <v>20.0216699533771</v>
+        <v>130.2273465915</v>
       </c>
       <c r="S8">
-        <v>0.02814948175713702</v>
+        <v>0.02718354411200997</v>
       </c>
       <c r="T8">
-        <v>0.02814948175713702</v>
+        <v>0.02418943934887709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H9">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J9">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N9">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P9">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q9">
-        <v>165.8085598631175</v>
+        <v>193.4162354106667</v>
       </c>
       <c r="R9">
-        <v>165.8085598631175</v>
+        <v>1740.746118696</v>
       </c>
       <c r="S9">
-        <v>0.2331186680188343</v>
+        <v>0.2422412298896338</v>
       </c>
       <c r="T9">
-        <v>0.2331186680188343</v>
+        <v>0.3233397113747112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H10">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J10">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N10">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O10">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P10">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q10">
-        <v>1.801709095582678</v>
+        <v>2.3950558185</v>
       </c>
       <c r="R10">
-        <v>1.801709095582678</v>
+        <v>21.5555023665</v>
       </c>
       <c r="S10">
-        <v>0.002533114242511916</v>
+        <v>0.002999651326559566</v>
       </c>
       <c r="T10">
-        <v>0.002533114242511916</v>
+        <v>0.004003886516743798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H11">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J11">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N11">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O11">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P11">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q11">
-        <v>3.189543366254625</v>
+        <v>3.867881311625001</v>
       </c>
       <c r="R11">
-        <v>3.189543366254625</v>
+        <v>34.81093180462501</v>
       </c>
       <c r="S11">
-        <v>0.00448434086722311</v>
+        <v>0.004844269272462005</v>
       </c>
       <c r="T11">
-        <v>0.00448434086722311</v>
+        <v>0.006466052988142771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H12">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J12">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N12">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O12">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P12">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q12">
-        <v>23.29050762809779</v>
+        <v>27.038394247</v>
       </c>
       <c r="R12">
-        <v>23.29050762809779</v>
+        <v>243.345548223</v>
       </c>
       <c r="S12">
-        <v>0.0327453065163036</v>
+        <v>0.03386382669855679</v>
       </c>
       <c r="T12">
-        <v>0.0327453065163036</v>
+        <v>0.04520089315820944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H13">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J13">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N13">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O13">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P13">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q13">
-        <v>132.6245041454338</v>
+        <v>153.8454211068125</v>
       </c>
       <c r="R13">
-        <v>132.6245041454338</v>
+        <v>923.0725266408751</v>
       </c>
       <c r="S13">
-        <v>0.1864635202100874</v>
+        <v>0.1926813638093776</v>
       </c>
       <c r="T13">
-        <v>0.1864635202100874</v>
+        <v>0.1714586642683817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H14">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I14">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J14">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N14">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O14">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P14">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q14">
-        <v>0.982310219592595</v>
+        <v>0.9931208537113334</v>
       </c>
       <c r="R14">
-        <v>0.982310219592595</v>
+        <v>5.958725122268</v>
       </c>
       <c r="S14">
-        <v>0.001381079783587531</v>
+        <v>0.001243819147453064</v>
       </c>
       <c r="T14">
-        <v>0.001381079783587531</v>
+        <v>0.001106819909291924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H15">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I15">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J15">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N15">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P15">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q15">
-        <v>8.134957934515262</v>
+        <v>8.850016614492445</v>
       </c>
       <c r="R15">
-        <v>8.134957934515262</v>
+        <v>79.650149530432</v>
       </c>
       <c r="S15">
-        <v>0.01143735015640338</v>
+        <v>0.01108406905287183</v>
       </c>
       <c r="T15">
-        <v>0.01143735015640338</v>
+        <v>0.01479483773280789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H16">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I16">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J16">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N16">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O16">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P16">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q16">
-        <v>0.08839608591316696</v>
+        <v>0.109588958452</v>
       </c>
       <c r="R16">
-        <v>0.08839608591316696</v>
+        <v>0.9863006260680001</v>
       </c>
       <c r="S16">
-        <v>0.0001242805427124375</v>
+        <v>0.000137253028533883</v>
       </c>
       <c r="T16">
-        <v>0.0001242805427124375</v>
+        <v>0.0001832031427997214</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H17">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I17">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J17">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N17">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O17">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P17">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q17">
-        <v>0.1564864994679035</v>
+        <v>0.1769800440903333</v>
       </c>
       <c r="R17">
-        <v>0.1564864994679035</v>
+        <v>1.592820396813</v>
       </c>
       <c r="S17">
-        <v>0.0002200123102751964</v>
+        <v>0.0002216559714097281</v>
       </c>
       <c r="T17">
-        <v>0.0002200123102751964</v>
+        <v>0.0002958628382656245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H18">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I18">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J18">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N18">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O18">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P18">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q18">
-        <v>1.142687084336877</v>
+        <v>1.237177622690667</v>
       </c>
       <c r="R18">
-        <v>1.142687084336877</v>
+        <v>11.134598604216</v>
       </c>
       <c r="S18">
-        <v>0.001606561755815553</v>
+        <v>0.001549484345387029</v>
       </c>
       <c r="T18">
-        <v>0.001606561755815553</v>
+        <v>0.002068226871393188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H19">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I19">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J19">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N19">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O19">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P19">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q19">
-        <v>6.506870110926272</v>
+        <v>7.039401475103834</v>
       </c>
       <c r="R19">
-        <v>6.506870110926272</v>
+        <v>42.236408850623</v>
       </c>
       <c r="S19">
-        <v>0.009148338870339051</v>
+        <v>0.00881639158882116</v>
       </c>
       <c r="T19">
-        <v>0.009148338870339051</v>
+        <v>0.007845318797835397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H20">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I20">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J20">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N20">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O20">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P20">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q20">
-        <v>1.108372465056277</v>
+        <v>1.144096059612667</v>
       </c>
       <c r="R20">
-        <v>1.108372465056277</v>
+        <v>6.864576357676</v>
       </c>
       <c r="S20">
-        <v>0.001558317091324945</v>
+        <v>0.001432905753769892</v>
       </c>
       <c r="T20">
-        <v>0.001558317091324945</v>
+        <v>0.001275079757100551</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H21">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I21">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J21">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N21">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P21">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q21">
-        <v>9.178936754569591</v>
+        <v>10.19540481735822</v>
       </c>
       <c r="R21">
-        <v>9.178936754569591</v>
+        <v>91.758643356224</v>
       </c>
       <c r="S21">
-        <v>0.01290513295466092</v>
+        <v>0.01276908009783004</v>
       </c>
       <c r="T21">
-        <v>0.01290513295466092</v>
+        <v>0.01704396347076841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H22">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I22">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J22">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N22">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O22">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P22">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q22">
-        <v>0.09974016933829509</v>
+        <v>0.126248779364</v>
       </c>
       <c r="R22">
-        <v>0.09974016933829509</v>
+        <v>1.136239014276</v>
       </c>
       <c r="S22">
-        <v>0.0001402297652383649</v>
+        <v>0.0001581183685033805</v>
       </c>
       <c r="T22">
-        <v>0.0001402297652383649</v>
+        <v>0.0002110538641923857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H23">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I23">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J23">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N23">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O23">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P23">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q23">
-        <v>0.1765687902903045</v>
+        <v>0.2038847239156667</v>
       </c>
       <c r="R23">
-        <v>0.1765687902903045</v>
+        <v>1.834962515241</v>
       </c>
       <c r="S23">
-        <v>0.0002482470219882095</v>
+        <v>0.0002553523295093343</v>
       </c>
       <c r="T23">
-        <v>0.0002482470219882095</v>
+        <v>0.0003408401970218923</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H24">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I24">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J24">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N24">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O24">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P24">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q24">
-        <v>1.28933088060482</v>
+        <v>1.425254577901333</v>
       </c>
       <c r="R24">
-        <v>1.28933088060482</v>
+        <v>12.827291201112</v>
       </c>
       <c r="S24">
-        <v>0.001812735710208677</v>
+        <v>0.001785038474787776</v>
       </c>
       <c r="T24">
-        <v>0.001812735710208677</v>
+        <v>0.002382640748206228</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H25">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I25">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J25">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N25">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O25">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P25">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q25">
-        <v>7.341912484265399</v>
+        <v>8.109538189235167</v>
       </c>
       <c r="R25">
-        <v>7.341912484265399</v>
+        <v>48.657229135411</v>
       </c>
       <c r="S25">
-        <v>0.01032236731599233</v>
+        <v>0.01015666808231623</v>
       </c>
       <c r="T25">
-        <v>0.01032236731599233</v>
+        <v>0.009037971853542028</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H26">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I26">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J26">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N26">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O26">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P26">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q26">
-        <v>3.258854950126904</v>
+        <v>3.30564789307</v>
       </c>
       <c r="R26">
-        <v>3.258854950126904</v>
+        <v>19.83388735842</v>
       </c>
       <c r="S26">
-        <v>0.004581789540101763</v>
+        <v>0.004140108556549811</v>
       </c>
       <c r="T26">
-        <v>0.004581789540101763</v>
+        <v>0.003684100366522214</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H27">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I27">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J27">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N27">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P27">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q27">
-        <v>26.98806080319948</v>
+        <v>29.45768248245333</v>
       </c>
       <c r="R27">
-        <v>26.98806080319948</v>
+        <v>265.11914234208</v>
       </c>
       <c r="S27">
-        <v>0.03794388415198244</v>
+        <v>0.03689382754812052</v>
       </c>
       <c r="T27">
-        <v>0.03794388415198244</v>
+        <v>0.0492452897318622</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H28">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I28">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J28">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N28">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O28">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P28">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q28">
-        <v>0.2932576862220184</v>
+        <v>0.3647718283799999</v>
       </c>
       <c r="R28">
-        <v>0.2932576862220184</v>
+        <v>3.28294645542</v>
       </c>
       <c r="S28">
-        <v>0.0004123058619820331</v>
+        <v>0.0004568529428165498</v>
       </c>
       <c r="T28">
-        <v>0.0004123058619820331</v>
+        <v>0.000609799986312371</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H29">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I29">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J29">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N29">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O29">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P29">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q29">
-        <v>0.519150461073807</v>
+        <v>0.589086119455</v>
       </c>
       <c r="R29">
-        <v>0.519150461073807</v>
+        <v>5.301775075095001</v>
       </c>
       <c r="S29">
-        <v>0.0007298999767370282</v>
+        <v>0.0007377919737952938</v>
       </c>
       <c r="T29">
-        <v>0.0007298999767370282</v>
+        <v>0.0009847929023900537</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H30">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I30">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J30">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N30">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O30">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P30">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q30">
-        <v>3.790911859577057</v>
+        <v>4.11800193956</v>
       </c>
       <c r="R30">
-        <v>3.790911859577057</v>
+        <v>37.06201745604</v>
       </c>
       <c r="S30">
-        <v>0.005329835347529508</v>
+        <v>0.005157529058555433</v>
       </c>
       <c r="T30">
-        <v>0.005329835347529508</v>
+        <v>0.006884187130158566</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H31">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I31">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J31">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N31">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O31">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P31">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q31">
-        <v>21.58681183182585</v>
+        <v>23.4309677092075</v>
       </c>
       <c r="R31">
-        <v>21.58681183182585</v>
+        <v>140.585806255245</v>
       </c>
       <c r="S31">
-        <v>0.03034999414483087</v>
+        <v>0.02934576005644715</v>
       </c>
       <c r="T31">
-        <v>0.03034999414483087</v>
+        <v>0.02611350014211377</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H32">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I32">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J32">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N32">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O32">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P32">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q32">
-        <v>11.84097073978307</v>
+        <v>12.042826986374</v>
       </c>
       <c r="R32">
-        <v>11.84097073978307</v>
+        <v>48.171307945496</v>
       </c>
       <c r="S32">
-        <v>0.01664782161540403</v>
+        <v>0.01508285596776963</v>
       </c>
       <c r="T32">
-        <v>0.01664782161540403</v>
+        <v>0.008947713075647599</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H33">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I33">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J33">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N33">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P33">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q33">
-        <v>98.06046699983601</v>
+        <v>107.3174715006507</v>
       </c>
       <c r="R33">
-        <v>98.06046699983601</v>
+        <v>643.904829003904</v>
       </c>
       <c r="S33">
-        <v>0.1378681864867433</v>
+        <v>0.1344081391604298</v>
       </c>
       <c r="T33">
-        <v>0.1378681864867433</v>
+        <v>0.1196038867051265</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H34">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I34">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J34">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N34">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O34">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P34">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q34">
-        <v>1.065544718900785</v>
+        <v>1.328902581516</v>
       </c>
       <c r="R34">
-        <v>1.065544718900785</v>
+        <v>7.973415489096</v>
       </c>
       <c r="S34">
-        <v>0.001498103389775042</v>
+        <v>0.001664363878587784</v>
       </c>
       <c r="T34">
-        <v>0.001498103389775042</v>
+        <v>0.001481044154127561</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H35">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I35">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J35">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N35">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O35">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P35">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q35">
-        <v>1.886320659617102</v>
+        <v>2.146103410331</v>
       </c>
       <c r="R35">
-        <v>1.886320659617102</v>
+        <v>12.876620461986</v>
       </c>
       <c r="S35">
-        <v>0.002652073933875129</v>
+        <v>0.002687854659590011</v>
       </c>
       <c r="T35">
-        <v>0.002652073933875129</v>
+        <v>0.002391803548457235</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H36">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I36">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J36">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N36">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O36">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P36">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q36">
-        <v>13.77418666780507</v>
+        <v>15.002319209992</v>
       </c>
       <c r="R36">
-        <v>13.77418666780507</v>
+        <v>90.013915259952</v>
       </c>
       <c r="S36">
-        <v>0.01936582798675984</v>
+        <v>0.01878942710734261</v>
       </c>
       <c r="T36">
-        <v>0.01936582798675984</v>
+        <v>0.0167198841159349</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H37">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I37">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J37">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N37">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O37">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P37">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q37">
-        <v>78.43515933591924</v>
+        <v>85.3615083557015</v>
       </c>
       <c r="R37">
-        <v>78.43515933591924</v>
+        <v>341.446033422806</v>
       </c>
       <c r="S37">
-        <v>0.1102759705851699</v>
+        <v>0.1069097261944693</v>
       </c>
       <c r="T37">
-        <v>0.1102759705851699</v>
+        <v>0.06342283961527569</v>
       </c>
     </row>
   </sheetData>
